--- a/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGCurrent_A" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,41 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>GNI</t>
-  </si>
-  <si>
-    <t>NNI</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>GFCE</t>
-  </si>
-  <si>
-    <t>PFCE</t>
-  </si>
-  <si>
-    <t>GFCF</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>Valuables</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,7 +366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1">
       <c r="B1" s="1" t="n">
         <v>1950</v>
       </c>
@@ -616,9 +581,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GNI</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>10180.6298938557</v>
@@ -834,9 +801,11 @@
         <v>19561348.12402705</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NNI</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>9531.21544489631</v>
@@ -1052,9 +1021,11 @@
         <v>17461759.4625327</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>10221.6298938557</v>
@@ -1270,9 +1241,11 @@
         <v>19745670.35971827</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GFCE</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>568.572044296763</v>
@@ -1488,9 +1461,11 @@
         <v>2467414.516001893</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PFCE</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>9108.70200078724</v>
@@ -1706,9 +1681,11 @@
         <v>11568231.32520312</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GFCF</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1168.97935648308</v>
@@ -1924,9 +1901,11 @@
         <v>5349875.231276684</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>370.125755337825</v>
@@ -2142,59 +2121,61 @@
         <v>195411.3565082242</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Valuables</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="n">
         <v>15919.1239563966</v>
       </c>
@@ -2262,9 +2243,11 @@
         <v>235781.7661029864</v>
       </c>
     </row>
-    <row r="10" spans="1:72">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>736</v>
@@ -2480,9 +2463,11 @@
         <v>3685170.0334369</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>711</v>

--- a/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,9 @@
       <c r="BT1" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -792,13 +795,16 @@
         <v>16905229.71858244</v>
       </c>
       <c r="BR2" t="n">
-        <v>18684632.44037557</v>
+        <v>18697343.97738455</v>
       </c>
       <c r="BS2" t="n">
-        <v>20157899.20226055</v>
+        <v>19881742.09975884</v>
       </c>
       <c r="BT2" t="n">
-        <v>19561348.12402705</v>
+        <v>19534226.43856516</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>23275583.10876272</v>
       </c>
     </row>
     <row r="3">
@@ -1012,13 +1018,16 @@
         <v>15140417.96061023</v>
       </c>
       <c r="BR3" t="n">
-        <v>16704645.11808693</v>
+        <v>16713053.82403151</v>
       </c>
       <c r="BS3" t="n">
-        <v>17994300.7824042</v>
+        <v>17716596.68963851</v>
       </c>
       <c r="BT3" t="n">
-        <v>17461759.4625327</v>
+        <v>17194157.5191422</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>20507944.51827032</v>
       </c>
     </row>
     <row r="4">
@@ -1232,13 +1241,16 @@
         <v>17090042.36113093</v>
       </c>
       <c r="BR4" t="n">
-        <v>18886956.9075768</v>
+        <v>18899668.44458577</v>
       </c>
       <c r="BS4" t="n">
-        <v>20351012.89449795</v>
+        <v>20074855.79199624</v>
       </c>
       <c r="BT4" t="n">
-        <v>19745670.35971827</v>
+        <v>19800913.82220953</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>23643874.76002298</v>
       </c>
     </row>
     <row r="5">
@@ -1452,13 +1464,16 @@
         <v>1840118.862481577</v>
       </c>
       <c r="BR5" t="n">
-        <v>2037627.435130538</v>
+        <v>2045552.416420495</v>
       </c>
       <c r="BS5" t="n">
-        <v>2285015.85363409</v>
+        <v>2200871.453132126</v>
       </c>
       <c r="BT5" t="n">
-        <v>2467414.516001893</v>
+        <v>2393289.941489425</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2685864.77916268</v>
       </c>
     </row>
     <row r="6">
@@ -1672,13 +1687,16 @@
         <v>10036152.95630672</v>
       </c>
       <c r="BR6" t="n">
-        <v>11222071.98125031</v>
+        <v>11205296.43789911</v>
       </c>
       <c r="BS6" t="n">
-        <v>12309019.01657746</v>
+        <v>12237110.85363039</v>
       </c>
       <c r="BT6" t="n">
-        <v>11568231.32520312</v>
+        <v>12032762.41519896</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>14024730.72439916</v>
       </c>
     </row>
     <row r="7">
@@ -1892,13 +1910,16 @@
         <v>4815600.783823894</v>
       </c>
       <c r="BR7" t="n">
-        <v>5512929.738848014</v>
+        <v>5568422.192404566</v>
       </c>
       <c r="BS7" t="n">
-        <v>5851312.689747373</v>
+        <v>5737645.057353197</v>
       </c>
       <c r="BT7" t="n">
-        <v>5349875.231276684</v>
+        <v>5264073.372063756</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6697727.018394873</v>
       </c>
     </row>
     <row r="8">
@@ -2112,13 +2133,16 @@
         <v>237580.8020900432</v>
       </c>
       <c r="BR8" t="n">
-        <v>318013.3295270988</v>
+        <v>318234.4827953394</v>
       </c>
       <c r="BS8" t="n">
-        <v>194441.0206927973</v>
+        <v>134472.1491510779</v>
       </c>
       <c r="BT8" t="n">
-        <v>195411.3565082242</v>
+        <v>-11763.95319910999</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>218169.5905473291</v>
       </c>
     </row>
     <row r="9">
@@ -2234,13 +2258,16 @@
         <v>241685.3763790012</v>
       </c>
       <c r="BR9" t="n">
-        <v>226094.8927485439</v>
+        <v>226104.3300411614</v>
       </c>
       <c r="BS9" t="n">
-        <v>194700.0545854553</v>
+        <v>194708.4400988311</v>
       </c>
       <c r="BT9" t="n">
-        <v>235781.7661029864</v>
+        <v>271414.22941324</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>460368.7820901056</v>
       </c>
     </row>
     <row r="10">
@@ -2457,10 +2484,13 @@
         <v>3766293.53338569</v>
       </c>
       <c r="BS10" t="n">
-        <v>3750566.824623799</v>
+        <v>3752187.824623799</v>
       </c>
       <c r="BT10" t="n">
-        <v>3685170.0334369</v>
+        <v>3704532.906006037</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>4921149.782912694</v>
       </c>
     </row>
     <row r="11">
@@ -2674,13 +2704,16 @@
         <v>3751389.417071767</v>
       </c>
       <c r="BR11" t="n">
-        <v>4468166.056008625</v>
+        <v>4477169.056008625</v>
       </c>
       <c r="BS11" t="n">
-        <v>4265040.028957966</v>
+        <v>4270232.028957966</v>
       </c>
       <c r="BT11" t="n">
-        <v>3792712.375074072</v>
+        <v>3781272.576304732</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5405826.703114379</v>
       </c>
     </row>
   </sheetData>

--- a/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGCurrent_A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AQEGCurrent_A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>GNI</t>
+  </si>
+  <si>
+    <t>NNI</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>GFCE</t>
+  </si>
+  <si>
+    <t>PFCE</t>
+  </si>
+  <si>
+    <t>GFCF</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>Valuables</t>
+  </si>
+  <si>
+    <t>Exports of goods and services</t>
+  </si>
+  <si>
+    <t>Imports of goods and services</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +84,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +103,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2370 +400,2295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BU11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:73">
+      <c r="B1" s="1">
         <v>1950</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1951</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1952</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1953</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1954</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1955</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1956</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1957</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1958</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1959</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1960</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1961</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1962</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1963</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1964</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1965</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1966</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1967</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1968</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1969</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1970</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1971</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1972</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1973</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1974</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1975</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1976</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1977</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1978</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1979</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1980</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1981</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1982</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1983</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1984</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1985</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1986</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1987</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1988</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1989</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1990</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1991</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1992</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1993</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1994</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1995</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1996</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1997</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1998</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1999</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>2000</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>2001</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>2002</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>2003</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2004</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2005</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2006</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2007</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2008</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2009</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2010</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2011</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2012</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2013</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2014</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2015</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2016</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2017</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2018</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2019</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2020</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>GNI</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:73">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>10180.6298938557</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>10828.3470586013</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10638.4333904013</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>11587.7053274838</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>10948.1214376697</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>11164.7818683883</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>13296.9093197886</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>13690.4413269017</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>15248.468191139</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>16044.7459956852</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>17561.2604026543</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>18584.0935960277</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>19968.8760462951</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>22946.0357318178</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>26750.3492669218</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>28196.0217485171</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>31875.8234237373</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>37343.2066525847</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>39559.0919031173</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>43564.9962626374</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>46532.8622908882</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>49828.9112456357</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>54943.3366225344</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>66915.656475096</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>79086.8760987775</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>84957.4496861994</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>91578.6831145504</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>103790.519868618</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>112515.368335682</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>123715.179269269</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>147407.868372441</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>172815.505322063</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>192620.563407853</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>224130.238963228</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>250764.249786135</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>283105.085390419</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>316560.941284616</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>359245.703529916</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>424866.990119574</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>487546.613572082</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>568564.205569279</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>652183.483539713</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>749550.931736488</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>863912.425376808</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>1014487.0589252</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>1192098.67581993</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>1381733.97470085</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>1532088.87584357</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>1757329.01171479</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>1972830.5728982</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>2117152.6906315</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>2295174.95710135</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>2475923.78468216</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>2771822.14139035</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>3163956.92374641</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>3606008.66071349</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>4221394.98378654</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>4878150.05905548</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>5481229.38466179</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>6328406.54171643</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>7552665.10436769</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>8659504.711372809</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>9827250.104152925</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>11093637.80386081</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>12320529.41843574</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>13612094.80929422</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>15077384</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>16905229.71858244</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>18697343.97738455</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>19881742.09975884</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>19534226.43856516</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>23275583.10876272</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>NNI</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:73">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>9531.21544489631</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10135.9489180242</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9948.605106935191</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>10941.1781882773</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>10382.233430968</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>10560.4906301287</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>12647.2201513462</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>12968.0717706853</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>14462.3375159572</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>15212.4714152528</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>16679.8461809285</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>17608.3712362354</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>18916.6851035485</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>21776.508233725</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>25423.2849527361</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>26714.2806393463</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>30145.4226096578</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>35367.2062335535</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>37441.3101978991</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>41124.7510871693</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>43597.7222931354</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>46610.964219706</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>51352.8878784733</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>62592.3223894704</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>73532.9787982624</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>78413.774013074</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>84488.602022148</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>96177.1699518283</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>104071.184042529</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>113397.078345831</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>135470.092819342</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>158235.339588067</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>175717.178483123</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>205346.59935916</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>228840.19005609</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>256850.852843121</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>286935.382101626</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>324539.178866149</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>384410.276475135</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>440563.162169179</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>513965.918507358</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>585053.477930031</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>672721.843132469</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>777893.986910554</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>914376.851804207</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>1075500.70571078</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>1247349.66228327</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>1379580.8274593</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>1587676.39935873</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>1779303.65192599</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>1902147.67450034</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>2057005.78563775</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>2219106.86525678</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>2487362.974627</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>2829997.67102965</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>3226040.31905658</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>3783068.10250147</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>4369214.45329013</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>4887835.9259641</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>5638125.81188822</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>6756720.45166646</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>7742329.77056175</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>8766345.335987739</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>9897662.866826093</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>10978237.95216882</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>12162397.72697614</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>13492657</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>15140417.96061023</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>16713053.82403151</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>17716596.68963851</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>17194157.5191422</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>20507944.51827032</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>GDP</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:73">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>10221.6298938557</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10863.3470586013</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>10663.4333904013</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>11606.7053274838</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10977.1214376697</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>11174.7818683883</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>13313.9093197886</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>13710.4413269017</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>15283.468191139</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>16101.7459956852</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>17633.2604026543</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>18682.0935960277</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>20076.8760462951</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>23058.0357318178</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>26895.3492669218</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>28360.0217485171</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>32105.8234237373</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>37601.2066525847</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>39814.0919031173</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>43835.9962626374</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>46816.8622908882</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>50119.9112456357</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>55245.3366225344</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>67240.656475096</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>79377.8760987775</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>85212.4496861994</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>91811.6831145504</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>104023.519868618</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>112671.368335682</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>123562.179269269</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>147062.868372441</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>172775.505322063</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>193254.563407853</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>225074.238963228</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>252188.249786135</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>284534.085390419</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>318365.941284616</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>361864.703529916</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>429362.990119574</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>493277.613572082</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>576109.205569279</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>662260.483539713</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>761195.931736488</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>875992.425376808</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>1027570.0589252</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>1205582.67581993</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>1394815.97470085</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>1545293.87584357</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>1772297.01171479</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>1988261.5728982</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>2139885.6906315</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>2315242.95710135</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>2492613.78468216</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>2792530.14139035</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>3186331.92374641</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>3632124.66071349</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>4254628.98378654</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>4898662.05905548</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>5514152.38466179</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>6366406.54171643</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>7634472.10436769</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>8736328.711372809</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>9944013.104152925</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>11233521.61163931</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>12467959.29255455</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>13771873.87885642</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>15391669.01487337</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>17090042.36113093</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>18899668.44458577</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>20074855.79199624</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>19800913.82220953</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>23643874.76002298</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>GFCE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:73">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>568.572044296763</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>596.626585956143</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>618.135067895001</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>652.735669274903</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>680.790210934283</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>729.418083143874</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>804.230194235554</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>939.827145589222</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1008.09319696038</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>1062.33197750185</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>1159.12095998953</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>1288.06790505813</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>1561.89703290162</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>2007.21146100416</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>2163.06463278153</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>2492.18859304735</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>2731.17503041041</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>3053.65858781463</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>3343.66402667701</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>3747.83959757038</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>4188.81896521073</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>4848.49653772352</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>5156.71847496946</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>5653.1650872168</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>6858.75721466339</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>8084.66427908517</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>8978.956123473519</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>9580.328945406871</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>10635.7361993323</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>12226.146522656</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>14194.3324747675</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>16631.6567639629</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>19658.9611158504</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>22712.5137647617</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>26116.3904341427</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>31100.1236424462</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>36772.0847618237</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>43166.8890519181</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>49824.8280849937</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>57041.450710109</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>65016.7577466228</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>73370.0260120345</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>83084.88975361521</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>96382.51230410321</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>107235.294638164</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>127071.639189182</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>144096.899551177</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>170426.230597761</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>211078.621266316</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>242080.58113202</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>255670.021536435</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>272306.14020546</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>282016.693313681</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>303721.440062196</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>331528.352485399</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>376511.134474082</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>417058.749646661</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>483111.721413891</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>581107.909991981</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>729569.016271431</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>840372.752000336</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>968375</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>1062404.063717287</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>1156509.039503195</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>1301761.776625495</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>1436171.044189208</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>1586657.599898442</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>1840118.862481577</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>2045552.416420495</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>2200871.453132126</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>2393289.941489425</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>2685864.77916268</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>PFCE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:73">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>9108.70200078724</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>9994.388008544291</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>9971.36747568861</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>10850.0731708826</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>10098.1953260502</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>10100.3466929385</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>11912.8215125467</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>12083.6433097481</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>13718.3797337824</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>14259.893635583</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>15408.6346616806</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>16112.3762521019</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>16969.1462152054</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>18839.4929924325</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>22178.7232234919</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>23410.5071616253</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>27264.5550662144</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>32491.1352270211</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>32506.2491403724</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>35163.4640314531</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>37305.861249004</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>40236.0711999931</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>44347.0556315548</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>53460.7453824066</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>64770.6756671235</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>66239.55912095591</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>68867.4908049183</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>79303.6479740115</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>86248.49115894749</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>93656.197940268</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>114482.766470241</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>131555.48568384</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>145224.751520155</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>170031.725365988</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>188144.072572739</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>207649.89024481</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>232913.718397236</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>258550.893257479</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>301067.296425246</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>336274.208338397</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>386426.019223595</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>443834.220275552</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>500443.231216062</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>573350.681478153</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>666285.0568517681</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>767961.720765391</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>900426.495527233</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>987625.630795286</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>1130880.28489214</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>1272676.02394181</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>1363941.33672728</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>1485155.5987857</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>1571085.66345121</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>1717510.96937931</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>1859274</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>2084067</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>2387270</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>2731519</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>3125246</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>3562634</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>4177954</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>4910447.375045845</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>5614484.643543188</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>6475649.592010573</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>7247340.105879591</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>8126408.329377808</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>9126533.428788317</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>10036152.95630672</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>11205296.43789911</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>12237110.85363039</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>12032762.41519896</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>14024730.72439916</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>GFCF</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:73">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>1168.97935648308</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1255.8038625884</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1179.84976837663</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1165.67789102323</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1363.31784916023</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1645.68623522217</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2052.11010496047</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>2052.8078549506</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>2058.02252601698</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>2243.98394822314</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>2549.04766372059</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>2943.5426789199</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>3205.55210545717</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>3768.7011011792</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>4380.25406064164</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>4855.26907445543</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>5371.99576275612</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>6042.06397051106</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>6453.30169849611</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>7067.98657793705</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>7273.54210732642</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>8312.738346959481</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>9420.674105250389</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>10696.1629564046</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>13180.2422767005</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>15095.1390607686</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>16975.0141956161</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>19546.219766837</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>21849.8359314211</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>25150.2339809751</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>28936.4431778496</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>34325.7482681124</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>40611.5055954717</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>46295.672714769</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>52582.3306225565</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>62037.8138886647</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>72908.7135584006</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>88452.84484886051</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>101209.353375256</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>121231.919440383</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>150261.783339667</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>162812.327832756</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>190980.252467664</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>207327.752401231</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>240028.941296634</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>303046.382906866</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>342075.648568695</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>391732.803384865</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>451204.980544795</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>547469.661740414</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>556836.450342381</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>693005.690817709</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>706220.418946284</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>791258.548359697</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>978463.313377173</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>1189714.67422665</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>1428912.53121047</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>1754351.87283247</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>1914401.18359775</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>2161498.5979225</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>2536936.19916481</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>2997732.834299723</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>3324973.130965624</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>3515621.021773199</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>3750391.710203525</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>3957092.370843598</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>4338671.227516375</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>4815600.783823894</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>5568422.192404566</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>5737645.057353197</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>5264073.372063756</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>6697727.018394873</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>CIS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:73">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>370.125755337825</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>447.10631183316</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-56.6819869039023</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-163.79476752208</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>80.97864155443079</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>305.402929854317</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>457.074253364158</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>317.018444998688</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>32.7379373447296</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>247.30164893678</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>612.831381088588</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>655.029433746056</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>429.882433102974</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>611.278186090035</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>872.36152384321</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>832.963729073055</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>521.995737381664</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>800.432331581071</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>610.613922379458</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>664.724910102883</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>1252.48208549352</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>1312.09681964146</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>1378.9229243914</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>1878.34992427705</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>4688.9222514305</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1559.72478122849</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>854.146237546546</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>2398.17894298566</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>3671.04108175718</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>4004.72773102465</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>-178.294187904639</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>9835.90867668761</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>7961.47189444528</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>1058.98411138328</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>6155.88702576077</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>13210.2891488593</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>10075.5464673764</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>5006.42727976334</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>11638.5541198867</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>11267.5624261246</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>7224.56807074888</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>3683.30398364114</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>17893.465222205</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>-8333.71699968525</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>30326.4526712811</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>48409.1433793523</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>-24625.9494760808</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>5295.42474903219</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>-8567.245389845109</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>52138.9810798796</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>-22474.8514910074</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>-15118.178731682</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>33510.8067632824</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>44743.8320080928</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>97714.98661578901</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>127267.12324742</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>179338.726514771</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>245702.695392301</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>130194.880275952</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>218437.802609827</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>333451.487309733</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>207983.187815356</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>214524.3843035383</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>144621.3077804485</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>312697.6676208377</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>262477.2319290451</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>138083.28677114</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>237580.8020900432</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>318234.4827953394</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>134472.1491510779</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>-11763.95319910999</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>218169.5905473291</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Valuables</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="n">
+    <row r="9" spans="1:73">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY9">
         <v>15919.1239563966</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>15103.6265953981</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>14552.7812081576</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>14316.8511540323</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>25205.5360433389</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>42112.4192053597</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>42459.4099797669</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>50990.4976186095</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>54973.2680218367</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>74074.70564683501</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>119310.557865222</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>167034.692630237</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>253033.33328728</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>273774.5243588231</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>161761.429492891</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>209406.6767879147</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>203505.9655499319</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>167326.320521979</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>241685.3763790012</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>226104.3300411614</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>194708.4400988311</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>271414.22941324</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>460368.7820901056</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Exports of goods and services</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:73">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>736</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>846</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>715</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>644</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>705</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>757</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>767</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>800</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>719</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>779</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>787</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>804</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>837</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>987</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>1002</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>938</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1330</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>1517</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>1608</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>1628</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>1771</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>1838</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>2225</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>2830</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>3835</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>4812</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>6139</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>6640</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>7115</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>8340</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>9029</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>10256</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>11563</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>13139</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>15846</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>14951</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>16543</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>20281</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>25913</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>34609</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>40635</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>56254</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>67312</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>86147</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>101607</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>130733</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>144854</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>165203</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>195280</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>227697</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>278126</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>290757</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>355556</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>417425</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>569051</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>712087</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>904872</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>1018907</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>1328765</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>1298780</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>1710193</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>2143931</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>2439707</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>2856781.300215655</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>2863636.278176366</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>2728647.421998834</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>2948772.106529445</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>3211520.571441177</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>3766293.53338569</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>3752187.824623799</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>3704532.906006037</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>4921149.782912694</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Imports of goods and services</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:73">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>711</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1038</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>702</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>652</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>750</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>839</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1174</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1304</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>1104</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1010</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>1205</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>1113</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>1211</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1362</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>1529</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>1478</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>2142</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>2236</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>1968</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>1767</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>1816</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>2006</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>2049</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>3176</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>4779</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>5664</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>5614</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>6517</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>7423</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>10094</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>13596</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>14809</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>15736</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>17675</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>19484</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>21754</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>22359</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>25259</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>32010</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>40212</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>48698</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>56249</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>73000</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>85999</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>104710</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>144953</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>161022</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>184333</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>224745</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>265702</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>297523</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>311050</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>379981</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>436878</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>625945</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>813466</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>1040535</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>1219108.91</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>1614040</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>1647139</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>2050182</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>2715554</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>3108428</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>3191810.89860641</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>3235961.925785946</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>3044923.401946368</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>3220591.427389315</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>3751389.417071767</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>4477169.056008625</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>4270232.028957966</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>3781272.576304732</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BU11">
         <v>5405826.703114379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGCurrent_A_historical.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AQEGCurrent_A" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGCurrent_A" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>GNI</t>
-  </si>
-  <si>
-    <t>NNI</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>GFCE</t>
-  </si>
-  <si>
-    <t>PFCE</t>
-  </si>
-  <si>
-    <t>GFCF</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>Valuables</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -103,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -400,2295 +353,2370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:73">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GNI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>10180.6298938557</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>10828.3470586013</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>10638.4333904013</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>11587.7053274838</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>10948.1214376697</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>11164.7818683883</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>13296.9093197886</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>13690.4413269017</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>15248.468191139</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>16044.7459956852</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>17561.2604026543</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>18584.0935960277</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>19968.8760462951</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>22946.0357318178</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>26750.3492669218</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>28196.0217485171</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>31875.8234237373</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>37343.2066525847</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>39559.0919031173</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>43564.9962626374</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>46532.8622908882</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>49828.9112456357</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>54943.3366225344</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>66915.656475096</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>79086.8760987775</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>84957.4496861994</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>91578.6831145504</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>103790.519868618</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>112515.368335682</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>123715.179269269</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>147407.868372441</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>172815.505322063</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>192620.563407853</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>224130.238963228</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>250764.249786135</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>283105.085390419</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>316560.941284616</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>359245.703529916</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>424866.990119574</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>487546.613572082</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>568564.205569279</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>652183.483539713</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>749550.931736488</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>863912.425376808</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>1014487.0589252</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>1192098.67581993</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>1381733.97470085</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>1532088.87584357</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>1757329.01171479</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>1972830.5728982</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>2117152.6906315</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>2295174.95710135</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>2475923.78468216</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>2771822.14139035</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>3163956.92374641</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>3606008.66071349</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>4221394.98378654</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>4878150.05905548</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>5481229.38466179</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>6328406.54171643</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>7552665.10436769</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>8659504.711372809</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>9827250.104152925</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>11093637.80386081</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>12320529.41843574</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>13612094.80929422</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>15077384</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>16905229.71858244</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>18697343.97738455</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>19881742.09975884</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>19534226.43856516</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>23275583.10876272</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NNI</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>9531.21544489631</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>10135.9489180242</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>9948.605106935191</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>10941.1781882773</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>10382.233430968</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>10560.4906301287</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>12647.2201513462</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>12968.0717706853</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>14462.3375159572</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>15212.4714152528</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>16679.8461809285</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>17608.3712362354</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>18916.6851035485</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>21776.508233725</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>25423.2849527361</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>26714.2806393463</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>30145.4226096578</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>35367.2062335535</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>37441.3101978991</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>41124.7510871693</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>43597.7222931354</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>46610.964219706</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>51352.8878784733</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>62592.3223894704</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>73532.9787982624</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>78413.774013074</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>84488.602022148</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>96177.1699518283</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>104071.184042529</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>113397.078345831</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>135470.092819342</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>158235.339588067</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>175717.178483123</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>205346.59935916</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>228840.19005609</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>256850.852843121</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>286935.382101626</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>324539.178866149</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>384410.276475135</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>440563.162169179</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>513965.918507358</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>585053.477930031</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>672721.843132469</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>777893.986910554</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>914376.851804207</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>1075500.70571078</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>1247349.66228327</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>1379580.8274593</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>1587676.39935873</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>1779303.65192599</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>1902147.67450034</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>2057005.78563775</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>2219106.86525678</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>2487362.974627</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>2829997.67102965</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>3226040.31905658</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>3783068.10250147</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>4369214.45329013</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>4887835.9259641</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>5638125.81188822</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>6756720.45166646</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>7742329.77056175</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>8766345.335987739</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>9897662.866826093</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>10978237.95216882</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>12162397.72697614</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>13492657</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>15140417.96061023</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>16713053.82403151</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>17716596.68963851</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>17194157.5191422</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>20507944.51827032</v>
       </c>
     </row>
-    <row r="4" spans="1:73">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>10221.6298938557</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>10863.3470586013</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>10663.4333904013</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>11606.7053274838</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>10977.1214376697</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>11174.7818683883</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>13313.9093197886</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>13710.4413269017</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>15283.468191139</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>16101.7459956852</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>17633.2604026543</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>18682.0935960277</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>20076.8760462951</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>23058.0357318178</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>26895.3492669218</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>28360.0217485171</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>32105.8234237373</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>37601.2066525847</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>39814.0919031173</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>43835.9962626374</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>46816.8622908882</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>50119.9112456357</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>55245.3366225344</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>67240.656475096</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>79377.8760987775</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>85212.4496861994</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>91811.6831145504</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>104023.519868618</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>112671.368335682</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>123562.179269269</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>147062.868372441</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>172775.505322063</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>193254.563407853</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>225074.238963228</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>252188.249786135</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>284534.085390419</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>318365.941284616</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>361864.703529916</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>429362.990119574</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>493277.613572082</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>576109.205569279</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>662260.483539713</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>761195.931736488</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>875992.425376808</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>1027570.0589252</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>1205582.67581993</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>1394815.97470085</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>1545293.87584357</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>1772297.01171479</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>1988261.5728982</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>2139885.6906315</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>2315242.95710135</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>2492613.78468216</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>2792530.14139035</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>3186331.92374641</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>3632124.66071349</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>4254628.98378654</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>4898662.05905548</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>5514152.38466179</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>6366406.54171643</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>7634472.10436769</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>8736328.711372809</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>9944013.104152925</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>11233521.61163931</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>12467959.29255455</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>13771873.87885642</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>15391669.01487337</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>17090042.36113093</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>18899668.44458577</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>20074855.79199624</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>19800913.82220953</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>23643874.76002298</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GFCE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>568.572044296763</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>596.626585956143</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>618.135067895001</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>652.735669274903</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>680.790210934283</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>729.418083143874</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>804.230194235554</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>939.827145589222</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>1008.09319696038</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>1062.33197750185</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>1159.12095998953</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>1288.06790505813</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>1561.89703290162</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>2007.21146100416</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>2163.06463278153</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>2492.18859304735</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>2731.17503041041</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>3053.65858781463</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>3343.66402667701</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>3747.83959757038</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>4188.81896521073</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>4848.49653772352</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>5156.71847496946</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>5653.1650872168</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>6858.75721466339</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>8084.66427908517</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>8978.956123473519</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>9580.328945406871</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>10635.7361993323</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>12226.146522656</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>14194.3324747675</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>16631.6567639629</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>19658.9611158504</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>22712.5137647617</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>26116.3904341427</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>31100.1236424462</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>36772.0847618237</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>43166.8890519181</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>49824.8280849937</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>57041.450710109</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>65016.7577466228</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>73370.0260120345</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>83084.88975361521</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>96382.51230410321</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>107235.294638164</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>127071.639189182</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>144096.899551177</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>170426.230597761</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>211078.621266316</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>242080.58113202</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>255670.021536435</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>272306.14020546</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>282016.693313681</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>303721.440062196</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>331528.352485399</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>376511.134474082</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>417058.749646661</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>483111.721413891</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>581107.909991981</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>729569.016271431</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>840372.752000336</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>968375</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>1062404.063717287</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>1156509.039503195</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>1301761.776625495</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>1436171.044189208</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>1586657.599898442</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>1840118.862481577</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>2045552.416420495</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>2200871.453132126</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>2393289.941489425</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>2685864.77916268</v>
       </c>
     </row>
-    <row r="6" spans="1:73">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PFCE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>9108.70200078724</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>9994.388008544291</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>9971.36747568861</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>10850.0731708826</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>10098.1953260502</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>10100.3466929385</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>11912.8215125467</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>12083.6433097481</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>13718.3797337824</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>14259.893635583</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>15408.6346616806</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>16112.3762521019</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>16969.1462152054</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>18839.4929924325</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>22178.7232234919</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>23410.5071616253</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>27264.5550662144</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>32491.1352270211</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>32506.2491403724</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>35163.4640314531</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>37305.861249004</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>40236.0711999931</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>44347.0556315548</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>53460.7453824066</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>64770.6756671235</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>66239.55912095591</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>68867.4908049183</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>79303.6479740115</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>86248.49115894749</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>93656.197940268</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>114482.766470241</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>131555.48568384</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>145224.751520155</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>170031.725365988</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>188144.072572739</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>207649.89024481</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>232913.718397236</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>258550.893257479</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>301067.296425246</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>336274.208338397</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>386426.019223595</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>443834.220275552</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>500443.231216062</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>573350.681478153</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>666285.0568517681</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>767961.720765391</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>900426.495527233</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>987625.630795286</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>1130880.28489214</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>1272676.02394181</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>1363941.33672728</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>1485155.5987857</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>1571085.66345121</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>1717510.96937931</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>1859274</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>2084067</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>2387270</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>2731519</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>3125246</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>3562634</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>4177954</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>4910447.375045845</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>5614484.643543188</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>6475649.592010573</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>7247340.105879591</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>8126408.329377808</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>9126533.428788317</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>10036152.95630672</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>11205296.43789911</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>12237110.85363039</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>12032762.41519896</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>14024730.72439916</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GFCF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1168.97935648308</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>1255.8038625884</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1179.84976837663</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1165.67789102323</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>1363.31784916023</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>1645.68623522217</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>2052.11010496047</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>2052.8078549506</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>2058.02252601698</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>2243.98394822314</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>2549.04766372059</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>2943.5426789199</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>3205.55210545717</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>3768.7011011792</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>4380.25406064164</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>4855.26907445543</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>5371.99576275612</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>6042.06397051106</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>6453.30169849611</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>7067.98657793705</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>7273.54210732642</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>8312.738346959481</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>9420.674105250389</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>10696.1629564046</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>13180.2422767005</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>15095.1390607686</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>16975.0141956161</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>19546.219766837</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>21849.8359314211</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>25150.2339809751</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>28936.4431778496</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>34325.7482681124</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>40611.5055954717</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>46295.672714769</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>52582.3306225565</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>62037.8138886647</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>72908.7135584006</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>88452.84484886051</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>101209.353375256</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>121231.919440383</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>150261.783339667</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>162812.327832756</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>190980.252467664</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>207327.752401231</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>240028.941296634</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>303046.382906866</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>342075.648568695</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>391732.803384865</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>451204.980544795</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>547469.661740414</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>556836.450342381</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>693005.690817709</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>706220.418946284</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>791258.548359697</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>978463.313377173</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>1189714.67422665</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>1428912.53121047</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>1754351.87283247</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>1914401.18359775</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>2161498.5979225</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>2536936.19916481</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>2997732.834299723</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>3324973.130965624</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>3515621.021773199</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>3750391.710203525</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>3957092.370843598</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>4338671.227516375</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>4815600.783823894</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>5568422.192404566</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>5737645.057353197</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>5264073.372063756</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>6697727.018394873</v>
       </c>
     </row>
-    <row r="8" spans="1:73">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>370.125755337825</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>447.10631183316</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>-56.6819869039023</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>-163.79476752208</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>80.97864155443079</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>305.402929854317</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>457.074253364158</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>317.018444998688</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>32.7379373447296</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>247.30164893678</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>612.831381088588</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>655.029433746056</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>429.882433102974</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>611.278186090035</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>872.36152384321</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>832.963729073055</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>521.995737381664</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>800.432331581071</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>610.613922379458</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>664.724910102883</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>1252.48208549352</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>1312.09681964146</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>1378.9229243914</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>1878.34992427705</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>4688.9222514305</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>1559.72478122849</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>854.146237546546</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>2398.17894298566</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>3671.04108175718</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>4004.72773102465</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>-178.294187904639</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>9835.90867668761</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>7961.47189444528</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>1058.98411138328</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>6155.88702576077</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>13210.2891488593</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>10075.5464673764</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>5006.42727976334</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>11638.5541198867</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>11267.5624261246</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>7224.56807074888</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>3683.30398364114</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>17893.465222205</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>-8333.71699968525</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>30326.4526712811</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>48409.1433793523</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>-24625.9494760808</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>5295.42474903219</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>-8567.245389845109</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>52138.9810798796</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>-22474.8514910074</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>-15118.178731682</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>33510.8067632824</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>44743.8320080928</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>97714.98661578901</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>127267.12324742</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>179338.726514771</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>245702.695392301</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>130194.880275952</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>218437.802609827</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>333451.487309733</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>207983.187815356</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>214524.3843035383</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>144621.3077804485</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>312697.6676208377</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>262477.2319290451</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>138083.28677114</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>237580.8020900432</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>318234.4827953394</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>134472.1491510779</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>-11763.95319910999</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>218169.5905473291</v>
       </c>
     </row>
-    <row r="9" spans="1:73">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Valuables</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="n">
         <v>15919.1239563966</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>15103.6265953981</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>14552.7812081576</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>14316.8511540323</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>25205.5360433389</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>42112.4192053597</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>42459.4099797669</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>50990.4976186095</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>54973.2680218367</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>74074.70564683501</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>119310.557865222</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>167034.692630237</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>253033.33328728</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>273774.5243588231</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>161761.429492891</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>209406.6767879147</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>203505.9655499319</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>167326.320521979</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>241685.3763790012</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>226104.3300411614</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>194708.4400988311</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>271414.22941324</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>460368.7820901056</v>
       </c>
     </row>
-    <row r="10" spans="1:73">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>736</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>846</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>715</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>644</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>705</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>757</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>767</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>800</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>719</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>779</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>787</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>804</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>837</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>987</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>1002</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>938</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>1330</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>1517</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>1608</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>1628</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>1771</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>1838</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>2225</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>2830</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>3835</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>4812</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>6139</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>6640</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>7115</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>8340</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>9029</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>10256</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>11563</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>13139</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>15846</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>14951</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>16543</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>20281</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>25913</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>34609</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>40635</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>56254</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>67312</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>86147</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>101607</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>130733</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>144854</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>165203</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>195280</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>227697</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>278126</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>290757</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>355556</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>417425</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>569051</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>712087</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>904872</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>1018907</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>1328765</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>1298780</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>1710193</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>2143931</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>2439707</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>2856781.300215655</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>2863636.278176366</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>2728647.421998834</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>2948772.106529445</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>3211520.571441177</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>3766293.53338569</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>3752187.824623799</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>3704532.906006037</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>4921149.782912694</v>
       </c>
     </row>
-    <row r="11" spans="1:73">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>711</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>1038</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>702</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>652</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>750</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>839</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>1174</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>1304</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>1104</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>1010</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>1205</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>1113</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>1211</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>1362</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>1529</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>1478</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>2142</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>2236</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>1968</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>1767</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>1816</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>2006</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>2049</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>3176</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>4779</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>5664</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>5614</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>6517</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>7423</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>10094</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>13596</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>14809</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>15736</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>17675</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>19484</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>21754</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>22359</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>25259</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>32010</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>40212</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>48698</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>56249</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>73000</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>85999</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>104710</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>144953</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>161022</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>184333</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>224745</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>265702</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>297523</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>311050</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>379981</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>436878</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>625945</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>813466</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>1040535</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>1219108.91</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>1614040</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>1647139</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>2050182</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>2715554</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>3108428</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>3191810.89860641</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>3235961.925785946</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>3044923.401946368</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>3220591.427389315</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>3751389.417071767</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>4477169.056008625</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>4270232.028957966</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>3781272.576304732</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>5405826.703114379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>